--- a/Expedia Templates/Disconnection/IMPORT 1 PS^0NS - deactivation.xlsx
+++ b/Expedia Templates/Disconnection/IMPORT 1 PS^0NS - deactivation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3554fa33ad85cce8/darkesthj/TP/APM files/115487890/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/Disconnection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_6A69D6BF8760D76C97192711590C583041D7FA61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F267105-EC6E-401F-9E4F-622DFF5ADA01}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E669D57B-F244-364D-A345-6E6BDC22EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="4095" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="3200" windowWidth="28800" windowHeight="15220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Action Type</t>
   </si>
@@ -41,21 +41,6 @@
     <t>Hotel ID</t>
   </si>
   <si>
-    <t>Partner Code</t>
-  </si>
-  <si>
-    <t>Responder ID</t>
-  </si>
-  <si>
-    <t>Chain Code</t>
-  </si>
-  <si>
-    <t>Brand Code</t>
-  </si>
-  <si>
-    <t>Hotel Code</t>
-  </si>
-  <si>
     <t>Stop Sell Property</t>
   </si>
   <si>
@@ -65,60 +50,9 @@
     <t>Projected Stop Sell End Date</t>
   </si>
   <si>
-    <t>Group Recon Enabled</t>
-  </si>
-  <si>
-    <t>TIDS Code</t>
-  </si>
-  <si>
-    <t>Hotel ARI Enabled</t>
-  </si>
-  <si>
-    <t>Hotel EQC Enabled</t>
-  </si>
-  <si>
-    <t>Sync Booking Enabled</t>
-  </si>
-  <si>
-    <t>Primary Notification Method</t>
-  </si>
-  <si>
-    <t>Secondary Notification Method</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Fax Country Code</t>
-  </si>
-  <si>
-    <t>Fax Area Code</t>
-  </si>
-  <si>
-    <t>Fax Number</t>
-  </si>
-  <si>
-    <t>Additional Notification Email Address</t>
-  </si>
-  <si>
-    <t>Additional Notification Fax Country Code</t>
-  </si>
-  <si>
-    <t>Additional Notification Fax Area Code</t>
-  </si>
-  <si>
-    <t>Additional Notification Fax Number</t>
-  </si>
-  <si>
-    <t>Terminate Independent Agreement</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -126,22 +60,13 @@
   </si>
   <si>
     <t>06/06/2079</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>x@x.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,42 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,145 +459,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
